--- a/Documentation/Gantt.xlsx
+++ b/Documentation/Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{40294F57-37AF-4750-A5A2-D6C9395525CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65517A1B-C5F1-42C9-BB70-A76E255BEA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -14,9 +14,6 @@
     <sheet name="Color" sheetId="18" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Color!$6:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">Dark!$6:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Light!$6:$9</definedName>
     <definedName name="Project_Start" localSheetId="3">Color!$C$6</definedName>
     <definedName name="Project_Start" localSheetId="2">Dark!$C$6</definedName>
     <definedName name="Project_Start" localSheetId="1">Light!$C$6</definedName>
@@ -28,6 +25,9 @@
     <definedName name="Today" localSheetId="3">TODAY()</definedName>
     <definedName name="Today" localSheetId="2">TODAY()</definedName>
     <definedName name="Today" localSheetId="1">TODAY()</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Color!$6:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Dark!$6:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Light!$6:$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -282,8 +282,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -853,7 +853,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -914,10 +914,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -979,13 +979,13 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1063,7 +1063,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1173,32 +1173,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,6 +1246,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1298,275 +1301,51 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Accent3" xfId="11" builtinId="37"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Akcent 3" xfId="11" builtinId="37"/>
     <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Dziesiętny" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Dziesiętny [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Tytuł" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1820,6 +1599,36 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2065,66 +1874,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2238,6 +1987,257 @@
           <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2753,7 +2753,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G40" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B9:G40" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2763,12 +2763,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="51" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="50" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2780,7 +2780,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2790,12 +2790,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2807,7 +2807,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2817,12 +2817,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3118,11 +3118,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
       <c r="F2" s="131"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3150,11 +3150,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="126"/>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="126"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3167,11 +3167,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="126"/>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="126"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3273,8 +3273,8 @@
   </sheetPr>
   <dimension ref="A2:BP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,27 +3294,27 @@
   <sheetData>
     <row r="2" spans="1:68" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3439,40 +3439,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
@@ -3591,7 +3591,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>March</v>
+        <v>marzec</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -3631,7 +3631,7 @@
       <c r="AJ6" s="109"/>
       <c r="AK6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"mmmm")=AD6,TEXT(AK7,"mmmm")=W6,TEXT(AK7,"mmmm")=P6,TEXT(AK7,"mmmm")=I6),"",TEXT(AK7,"mmmm"))</f>
-        <v>April</v>
+        <v>kwiecień</v>
       </c>
       <c r="AL6" s="109"/>
       <c r="AM6" s="109"/>
@@ -4000,227 +4000,227 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>ś</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>c</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>p</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>n</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>p</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>w</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
@@ -5531,7 +5531,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="68">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F16" s="69">
         <v>44272</v>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="36" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="159"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
       <c r="E36" s="68"/>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="37" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="159"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="67"/>
       <c r="D37" s="67"/>
       <c r="E37" s="68"/>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="38" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="159"/>
+      <c r="B38" s="142"/>
       <c r="C38" s="67"/>
       <c r="D38" s="67"/>
       <c r="E38" s="68"/>
@@ -10455,227 +10455,227 @@
       <c r="G39" s="70"/>
       <c r="H39" s="103"/>
       <c r="I39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ref="I39:AN39" ca="1" si="13">IF(AND($C39="Goal",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1),1,""))</f>
         <v/>
       </c>
       <c r="J39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",J$7&gt;=$F39,J$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",J$7&gt;=$F39,J$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",K$7&gt;=$F39,K$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",K$7&gt;=$F39,K$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",L$7&gt;=$F39,L$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",L$7&gt;=$F39,L$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",M$7&gt;=$F39,M$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",M$7&gt;=$F39,M$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",N$7&gt;=$F39,N$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",N$7&gt;=$F39,N$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",O$7&gt;=$F39,O$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",O$7&gt;=$F39,O$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",P$7&gt;=$F39,P$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",P$7&gt;=$F39,P$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Q39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",Q$7&gt;=$F39,Q$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",Q$7&gt;=$F39,Q$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="R39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",R$7&gt;=$F39,R$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",R$7&gt;=$F39,R$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="S39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",S$7&gt;=$F39,S$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",S$7&gt;=$F39,S$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",T$7&gt;=$F39,T$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",T$7&gt;=$F39,T$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",U$7&gt;=$F39,U$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",U$7&gt;=$F39,U$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",V$7&gt;=$F39,V$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",V$7&gt;=$F39,V$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",W$7&gt;=$F39,W$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",W$7&gt;=$F39,W$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",X$7&gt;=$F39,X$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",X$7&gt;=$F39,X$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",Y$7&gt;=$F39,Y$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",Y$7&gt;=$F39,Y$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",Z$7&gt;=$F39,Z$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",Z$7&gt;=$F39,Z$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AA$7&gt;=$F39,AA$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AA$7&gt;=$F39,AA$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AB$7&gt;=$F39,AB$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AB$7&gt;=$F39,AB$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AC$7&gt;=$F39,AC$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AC$7&gt;=$F39,AC$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AD$7&gt;=$F39,AD$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AD$7&gt;=$F39,AD$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AE$7&gt;=$F39,AE$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AE$7&gt;=$F39,AE$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AF$7&gt;=$F39,AF$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AF$7&gt;=$F39,AF$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AG$7&gt;=$F39,AG$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AG$7&gt;=$F39,AG$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AH$7&gt;=$F39,AH$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AH$7&gt;=$F39,AH$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AI$7&gt;=$F39,AI$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AI$7&gt;=$F39,AI$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AJ$7&gt;=$F39,AJ$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AJ$7&gt;=$F39,AJ$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AK$7&gt;=$F39,AK$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AK$7&gt;=$F39,AK$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AL$7&gt;=$F39,AL$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AL$7&gt;=$F39,AL$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AM$7&gt;=$F39,AM$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AM$7&gt;=$F39,AM$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AN39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AN$7&gt;=$F39,AN$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AN$7&gt;=$F39,AN$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AO39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AO$7&gt;=$F39,AO$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AO$7&gt;=$F39,AO$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ref="AO39:BL39" ca="1" si="14">IF(AND($C39="Goal",AO$7&gt;=$F39,AO$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AO$7&gt;=$F39,AO$7&lt;=$F39+$G39-1),1,""))</f>
         <v/>
       </c>
       <c r="AP39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AP$7&gt;=$F39,AP$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AP$7&gt;=$F39,AP$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AQ$7&gt;=$F39,AQ$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AQ$7&gt;=$F39,AQ$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AR$7&gt;=$F39,AR$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AR$7&gt;=$F39,AR$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AS$7&gt;=$F39,AS$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AS$7&gt;=$F39,AS$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AT$7&gt;=$F39,AT$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AT$7&gt;=$F39,AT$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AU$7&gt;=$F39,AU$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AU$7&gt;=$F39,AU$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AV$7&gt;=$F39,AV$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AV$7&gt;=$F39,AV$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AW$7&gt;=$F39,AW$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AW$7&gt;=$F39,AW$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AX39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AX$7&gt;=$F39,AX$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AX$7&gt;=$F39,AX$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AY39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AY$7&gt;=$F39,AY$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AY$7&gt;=$F39,AY$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AZ39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",AZ$7&gt;=$F39,AZ$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",AZ$7&gt;=$F39,AZ$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BA39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BA$7&gt;=$F39,BA$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BA$7&gt;=$F39,BA$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BB39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BB$7&gt;=$F39,BB$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BB$7&gt;=$F39,BB$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BC39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BC$7&gt;=$F39,BC$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BC$7&gt;=$F39,BC$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BD39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BD$7&gt;=$F39,BD$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BD$7&gt;=$F39,BD$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BE39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BE$7&gt;=$F39,BE$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BE$7&gt;=$F39,BE$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BF39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BF$7&gt;=$F39,BF$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BF$7&gt;=$F39,BF$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BG39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BG$7&gt;=$F39,BG$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BG$7&gt;=$F39,BG$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BH$7&gt;=$F39,BH$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BH$7&gt;=$F39,BH$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BI$7&gt;=$F39,BI$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BI$7&gt;=$F39,BI$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BJ$7&gt;=$F39,BJ$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BJ$7&gt;=$F39,BJ$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BK$7&gt;=$F39,BK$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BK$7&gt;=$F39,BK$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL39" s="29" t="str">
-        <f ca="1">IF(AND($C39="Goal",BL$7&gt;=$F39,BL$7&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",BL$7&gt;=$F39,BL$7&lt;=$F39+$G39-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BM39" s="106"/>
@@ -10783,56 +10783,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="57" priority="6">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="56" priority="9">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="55" priority="8">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="54" priority="7">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL39">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="12" stopIfTrue="1">
       <formula>AND($C10=$N$4,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="13" stopIfTrue="1">
       <formula>AND($C10=$X$4,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="14" stopIfTrue="1">
       <formula>AND($C10=$I$4,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="15" stopIfTrue="1">
       <formula>AND($C10=$S$4,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="16" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="18" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="19" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="20" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="21" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10971,44 +10971,6 @@
           <xm:sqref>E34:E40 E9:E28 E30 E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I10:BL39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I40:BL40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D1B9BE0C-9317-490A-BDA7-1DDD37C81094}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -11068,6 +11030,44 @@
           </x14:cfRule>
           <xm:sqref>E31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I10:BL39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I40:BL40</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -11103,27 +11103,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -11250,40 +11250,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -11403,7 +11403,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="112" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>March</v>
+        <v>marzec</v>
       </c>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -11423,7 +11423,7 @@
       <c r="V6" s="112"/>
       <c r="W6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>April</v>
+        <v>kwiecień</v>
       </c>
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
@@ -11463,7 +11463,7 @@
       <c r="AX6" s="112"/>
       <c r="AY6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v/>
+        <v>maj</v>
       </c>
       <c r="AZ6" s="112"/>
       <c r="BA6" s="112"/>
@@ -11473,7 +11473,7 @@
       <c r="BE6" s="73"/>
       <c r="BF6" s="73" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="BG6" s="73"/>
       <c r="BH6" s="73"/>
@@ -11498,227 +11498,227 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44275</v>
+        <v>44281</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44276</v>
+        <v>44282</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44277</v>
+        <v>44283</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44279</v>
+        <v>44285</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44280</v>
+        <v>44286</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44281</v>
+        <v>44287</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44288</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44289</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44284</v>
+        <v>44290</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44285</v>
+        <v>44291</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44286</v>
+        <v>44292</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44295</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44296</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44297</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44298</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44299</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44302</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44303</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44304</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44300</v>
+        <v>44306</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44309</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44310</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44311</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44307</v>
+        <v>44313</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44309</v>
+        <v>44315</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44316</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44317</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44318</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44319</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>44315</v>
+        <v>44321</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44317</v>
+        <v>44323</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44318</v>
+        <v>44324</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44319</v>
+        <v>44325</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44320</v>
+        <v>44326</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44324</v>
+        <v>44330</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44325</v>
+        <v>44331</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44326</v>
+        <v>44332</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44327</v>
+        <v>44333</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>44328</v>
+        <v>44334</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -11812,227 +11812,227 @@
       <c r="H9" s="55"/>
       <c r="I9" s="43" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="L9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="O9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="Q9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="R9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="S9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="V9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="W9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="X9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="Y9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AM9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AN9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AP9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AQ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AR9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AS9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AT9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AU9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AW9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AX9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AY9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AZ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="BA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="BB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="BD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="BE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="BF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="BG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="BH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="BI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="BK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="BL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -12600,7 +12600,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44277</v>
+        <v>44283</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44269</v>
+        <v>44275</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -13090,7 +13090,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44292</v>
+        <v>44298</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44280</v>
+        <v>44286</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44285</v>
+        <v>44291</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -14555,7 +14555,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -14797,7 +14797,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -15278,7 +15278,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -15522,7 +15522,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44290</v>
+        <v>44296</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -15766,7 +15766,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44305</v>
+        <v>44311</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -16010,7 +16010,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44309</v>
+        <v>44315</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -16254,7 +16254,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -16733,7 +16733,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44312</v>
+        <v>44318</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -16975,7 +16975,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44326</v>
+        <v>44332</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -17219,7 +17219,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44368</v>
+        <v>44374</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -18263,56 +18263,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18467,27 +18467,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
@@ -18614,40 +18614,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -18767,7 +18767,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>March</v>
+        <v>marzec</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -18777,7 +18777,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>kwiecień</v>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -18787,7 +18787,7 @@
       <c r="V6" s="109"/>
       <c r="W6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>April</v>
+        <v/>
       </c>
       <c r="X6" s="109"/>
       <c r="Y6" s="109"/>
@@ -18817,7 +18817,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>maj</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -18827,7 +18827,7 @@
       <c r="AX6" s="110"/>
       <c r="AY6" s="110" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="AZ6" s="110"/>
       <c r="BA6" s="110"/>
@@ -18862,227 +18862,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44277</v>
+        <v>44283</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44279</v>
+        <v>44285</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44280</v>
+        <v>44286</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44281</v>
+        <v>44287</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44288</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44289</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44284</v>
+        <v>44290</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44285</v>
+        <v>44291</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44286</v>
+        <v>44292</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44295</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44296</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44291</v>
+        <v>44297</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44292</v>
+        <v>44298</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44299</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44302</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44303</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44298</v>
+        <v>44304</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44299</v>
+        <v>44305</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44300</v>
+        <v>44306</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44308</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44309</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44310</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44305</v>
+        <v>44311</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44306</v>
+        <v>44312</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44307</v>
+        <v>44313</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44308</v>
+        <v>44314</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44315</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44316</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44317</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44312</v>
+        <v>44318</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44313</v>
+        <v>44319</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44315</v>
+        <v>44321</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44323</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44324</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44319</v>
+        <v>44325</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44320</v>
+        <v>44326</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44324</v>
+        <v>44330</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44325</v>
+        <v>44331</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44326</v>
+        <v>44332</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44327</v>
+        <v>44333</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44328</v>
+        <v>44334</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44329</v>
+        <v>44335</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44330</v>
+        <v>44336</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44331</v>
+        <v>44337</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44332</v>
+        <v>44338</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -19176,227 +19176,227 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>n</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>p</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>w</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>ś</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>p</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>s</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -19964,7 +19964,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44277</v>
+        <v>44283</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -20210,7 +20210,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44269</v>
+        <v>44275</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -20454,7 +20454,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44292</v>
+        <v>44298</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -21429,7 +21429,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44280</v>
+        <v>44286</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44285</v>
+        <v>44291</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -21919,7 +21919,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -22161,7 +22161,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44288</v>
+        <v>44294</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -22642,7 +22642,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44287</v>
+        <v>44293</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -22886,7 +22886,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44290</v>
+        <v>44296</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -23130,7 +23130,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44305</v>
+        <v>44311</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -23374,7 +23374,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44309</v>
+        <v>44315</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -23618,7 +23618,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -24097,7 +24097,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44312</v>
+        <v>44318</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -24339,7 +24339,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44326</v>
+        <v>44332</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -24583,7 +24583,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44368</v>
+        <v>44374</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -25627,56 +25627,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25812,6 +25812,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26087,25 +26106,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
@@ -26115,6 +26115,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26133,16 +26145,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Gantt.xlsx
+++ b/Documentation/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65517A1B-C5F1-42C9-BB70-A76E255BEA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BEA706-49DB-413E-97F3-40F0CEA811DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="17580" windowHeight="10560" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -3274,7 +3274,7 @@
   <dimension ref="A2:BP42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,7 +4546,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="69">
         <v>44265</v>
@@ -6272,7 +6272,7 @@
         <v>56</v>
       </c>
       <c r="E19" s="68">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="69">
         <v>44272</v>
@@ -7010,7 +7010,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="68">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F22" s="69">
         <v>44279</v>
@@ -7257,7 +7257,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="68">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23" s="69">
         <v>44286</v>
@@ -7994,7 +7994,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="68">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="69">
         <v>44293</v>
@@ -8241,7 +8241,7 @@
         <v>50</v>
       </c>
       <c r="E27" s="68">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F27" s="69">
         <v>44293</v>
@@ -9472,7 +9472,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="68">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="69">
         <v>44321</v>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44278</v>
+        <v>44309</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -11403,7 +11403,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="112" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>marzec</v>
+        <v>kwiecień</v>
       </c>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -11413,7 +11413,7 @@
       <c r="O6" s="112"/>
       <c r="P6" s="112" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>maj</v>
       </c>
       <c r="Q6" s="112"/>
       <c r="R6" s="112"/>
@@ -11423,7 +11423,7 @@
       <c r="V6" s="112"/>
       <c r="W6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>kwiecień</v>
+        <v/>
       </c>
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
@@ -11463,7 +11463,7 @@
       <c r="AX6" s="112"/>
       <c r="AY6" s="112" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>maj</v>
+        <v>czerwiec</v>
       </c>
       <c r="AZ6" s="112"/>
       <c r="BA6" s="112"/>
@@ -11498,227 +11498,227 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44279</v>
+        <v>44310</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44280</v>
+        <v>44311</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44281</v>
+        <v>44312</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44282</v>
+        <v>44313</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44314</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44285</v>
+        <v>44316</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44286</v>
+        <v>44317</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44287</v>
+        <v>44318</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44319</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44320</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44321</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44291</v>
+        <v>44322</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44323</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44293</v>
+        <v>44324</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44294</v>
+        <v>44325</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44326</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44327</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44297</v>
+        <v>44328</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44300</v>
+        <v>44331</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44301</v>
+        <v>44332</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44334</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44304</v>
+        <v>44335</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44305</v>
+        <v>44336</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44337</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44307</v>
+        <v>44338</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44308</v>
+        <v>44339</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44340</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44341</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44342</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44314</v>
+        <v>44345</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44315</v>
+        <v>44346</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44349</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44350</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44351</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>44321</v>
+        <v>44352</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>44322</v>
+        <v>44353</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44323</v>
+        <v>44354</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44324</v>
+        <v>44355</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44325</v>
+        <v>44356</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>44328</v>
+        <v>44359</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>44329</v>
+        <v>44360</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44330</v>
+        <v>44361</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44331</v>
+        <v>44362</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44332</v>
+        <v>44363</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44333</v>
+        <v>44364</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>44365</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -11812,11 +11812,11 @@
       <c r="H9" s="55"/>
       <c r="I9" s="43" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11824,27 +11824,27 @@
       </c>
       <c r="L9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="O9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="Q9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="R9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11852,27 +11852,27 @@
       </c>
       <c r="S9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="V9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="W9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="X9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="Y9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11880,27 +11880,27 @@
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11908,27 +11908,27 @@
       </c>
       <c r="AG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AM9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11936,27 +11936,27 @@
       </c>
       <c r="AN9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AO9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AP9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AQ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AR9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AS9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AT9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11964,27 +11964,27 @@
       </c>
       <c r="AU9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AV9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AW9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AX9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AY9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AZ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="BA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11992,27 +11992,27 @@
       </c>
       <c r="BB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="BC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="BD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="BE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="BF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="BG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="BH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12020,19 +12020,19 @@
       </c>
       <c r="BI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="BJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="BK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="BL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44278</v>
+        <v>44309</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -12600,7 +12600,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44283</v>
+        <v>44314</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44275</v>
+        <v>44306</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -13090,7 +13090,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44286</v>
+        <v>44317</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44291</v>
+        <v>44322</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -14555,7 +14555,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44293</v>
+        <v>44324</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -14797,7 +14797,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44294</v>
+        <v>44325</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -15278,7 +15278,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44293</v>
+        <v>44324</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -15522,7 +15522,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44296</v>
+        <v>44327</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -15766,7 +15766,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44311</v>
+        <v>44342</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -16010,7 +16010,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44315</v>
+        <v>44346</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -16254,7 +16254,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -16733,7 +16733,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44318</v>
+        <v>44349</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -16975,7 +16975,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44332</v>
+        <v>44363</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -17219,7 +17219,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44374</v>
+        <v>44405</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44278</v>
+        <v>44309</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -18767,7 +18767,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>marzec</v>
+        <v>kwiecień</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -18777,7 +18777,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>kwiecień</v>
+        <v>maj</v>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -18817,7 +18817,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>maj</v>
+        <v>czerwiec</v>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -18862,227 +18862,227 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44283</v>
+        <v>44314</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44285</v>
+        <v>44316</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44286</v>
+        <v>44317</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44287</v>
+        <v>44318</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44288</v>
+        <v>44319</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44289</v>
+        <v>44320</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44290</v>
+        <v>44321</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44291</v>
+        <v>44322</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44292</v>
+        <v>44323</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44293</v>
+        <v>44324</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44294</v>
+        <v>44325</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44326</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44296</v>
+        <v>44327</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44297</v>
+        <v>44328</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44299</v>
+        <v>44330</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44300</v>
+        <v>44331</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44301</v>
+        <v>44332</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44303</v>
+        <v>44334</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44304</v>
+        <v>44335</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44305</v>
+        <v>44336</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44306</v>
+        <v>44337</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44307</v>
+        <v>44338</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44308</v>
+        <v>44339</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44309</v>
+        <v>44340</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44341</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44311</v>
+        <v>44342</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44344</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44314</v>
+        <v>44345</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44315</v>
+        <v>44346</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44318</v>
+        <v>44349</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44319</v>
+        <v>44350</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44351</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44321</v>
+        <v>44352</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44322</v>
+        <v>44353</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44323</v>
+        <v>44354</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44324</v>
+        <v>44355</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44325</v>
+        <v>44356</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44328</v>
+        <v>44359</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44329</v>
+        <v>44360</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44330</v>
+        <v>44361</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44331</v>
+        <v>44362</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44332</v>
+        <v>44363</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44333</v>
+        <v>44364</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44334</v>
+        <v>44365</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44335</v>
+        <v>44366</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44336</v>
+        <v>44367</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44337</v>
+        <v>44368</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44338</v>
+        <v>44369</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
@@ -19176,23 +19176,23 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19200,27 +19200,27 @@
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19228,27 +19228,27 @@
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19256,27 +19256,27 @@
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19284,27 +19284,27 @@
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19312,27 +19312,27 @@
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19340,27 +19340,27 @@
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19368,27 +19368,27 @@
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>n</v>
+        <v>ś</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>p</v>
+        <v>c</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>w</v>
+        <v>p</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ś</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>c</v>
+        <v>n</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44278</v>
+        <v>44309</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -19964,7 +19964,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44283</v>
+        <v>44314</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -20210,7 +20210,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44275</v>
+        <v>44306</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -20454,7 +20454,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44298</v>
+        <v>44329</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -21429,7 +21429,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44286</v>
+        <v>44317</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44291</v>
+        <v>44322</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -21919,7 +21919,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44293</v>
+        <v>44324</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -22161,7 +22161,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44294</v>
+        <v>44325</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -22642,7 +22642,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44293</v>
+        <v>44324</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -22886,7 +22886,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44296</v>
+        <v>44327</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -23130,7 +23130,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44311</v>
+        <v>44342</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -23374,7 +23374,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44315</v>
+        <v>44346</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -23618,7 +23618,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44284</v>
+        <v>44315</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -24097,7 +24097,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44318</v>
+        <v>44349</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -24339,7 +24339,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44332</v>
+        <v>44363</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -24583,7 +24583,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44374</v>
+        <v>44405</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -25812,25 +25812,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26106,6 +26087,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
@@ -26115,18 +26115,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26145,4 +26133,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Gantt.xlsx
+++ b/Documentation/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA3944-8E11-4E05-8A9E-72F247620700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA8108-B743-4495-AFF6-6358C2DD9628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1544,7 +1544,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="42"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="49"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2128,7 +2128,7 @@
   <dimension ref="A2:BP42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,7 @@
       <c r="O6" s="61"/>
       <c r="P6" s="61" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v/>
+        <v>maj</v>
       </c>
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
@@ -2465,7 +2465,7 @@
       <c r="V6" s="61"/>
       <c r="W6" s="61" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>maj</v>
+        <v/>
       </c>
       <c r="X6" s="61"/>
       <c r="Y6" s="61"/>
@@ -2495,7 +2495,7 @@
       <c r="AQ6" s="61"/>
       <c r="AR6" s="61" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>czerwiec</v>
       </c>
       <c r="AS6" s="61"/>
       <c r="AT6" s="61"/>
@@ -2505,7 +2505,7 @@
       <c r="AX6" s="62"/>
       <c r="AY6" s="62" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>czerwiec</v>
+        <v/>
       </c>
       <c r="AZ6" s="62"/>
       <c r="BA6" s="62"/>
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="45">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -2540,227 +2540,227 @@
       <c r="H7" s="46"/>
       <c r="I7" s="64">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44307</v>
+        <v>44314</v>
       </c>
       <c r="J7" s="65">
         <f ca="1">I7+1</f>
-        <v>44308</v>
+        <v>44315</v>
       </c>
       <c r="K7" s="65">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44309</v>
+        <v>44316</v>
       </c>
       <c r="L7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44310</v>
+        <v>44317</v>
       </c>
       <c r="M7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44311</v>
+        <v>44318</v>
       </c>
       <c r="N7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="O7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="P7" s="65">
         <f ca="1">O7+1</f>
-        <v>44314</v>
+        <v>44321</v>
       </c>
       <c r="Q7" s="65">
         <f ca="1">P7+1</f>
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="R7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="S7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44317</v>
+        <v>44324</v>
       </c>
       <c r="T7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="U7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="V7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44320</v>
+        <v>44327</v>
       </c>
       <c r="W7" s="65">
         <f ca="1">V7+1</f>
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="X7" s="65">
         <f ca="1">W7+1</f>
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="Y7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44323</v>
+        <v>44330</v>
       </c>
       <c r="Z7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44324</v>
+        <v>44331</v>
       </c>
       <c r="AA7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="AB7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="AC7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="AD7" s="65">
         <f ca="1">AC7+1</f>
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="AE7" s="65">
         <f ca="1">AD7+1</f>
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="AF7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44330</v>
+        <v>44337</v>
       </c>
       <c r="AG7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44331</v>
+        <v>44338</v>
       </c>
       <c r="AH7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="AI7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="AJ7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44334</v>
+        <v>44341</v>
       </c>
       <c r="AK7" s="65">
         <f ca="1">AJ7+1</f>
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="AL7" s="65">
         <f ca="1">AK7+1</f>
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="AM7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44337</v>
+        <v>44344</v>
       </c>
       <c r="AN7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44338</v>
+        <v>44345</v>
       </c>
       <c r="AO7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="AP7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="AQ7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44341</v>
+        <v>44348</v>
       </c>
       <c r="AR7" s="65">
         <f ca="1">AQ7+1</f>
-        <v>44342</v>
+        <v>44349</v>
       </c>
       <c r="AS7" s="65">
         <f ca="1">AR7+1</f>
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="AT7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44344</v>
+        <v>44351</v>
       </c>
       <c r="AU7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="AV7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44346</v>
+        <v>44353</v>
       </c>
       <c r="AW7" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44347</v>
+        <v>44354</v>
       </c>
       <c r="AX7" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="AY7" s="65">
         <f ca="1">AX7+1</f>
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="AZ7" s="65">
         <f ca="1">AY7+1</f>
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="BA7" s="65">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="BB7" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>44352</v>
+        <v>44359</v>
       </c>
       <c r="BC7" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="BD7" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="BE7" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="BF7" s="65">
         <f ca="1">BE7+1</f>
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="BG7" s="65">
         <f ca="1">BF7+1</f>
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="BH7" s="65">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="BI7" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>44359</v>
+        <v>44366</v>
       </c>
       <c r="BJ7" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="BK7" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="BL7" s="66">
         <f t="shared" ca="1" si="2"/>
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="BM7" s="51"/>
     </row>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="25">
-        <v>44313</v>
+        <v>44316</v>
       </c>
       <c r="G23" s="26">
         <v>14</v>
@@ -6361,7 +6361,7 @@
         <v>0.01</v>
       </c>
       <c r="F24" s="25">
-        <v>44316</v>
+        <v>44331</v>
       </c>
       <c r="G24" s="26">
         <v>7</v>
@@ -6610,9 +6610,9 @@
         <v>1</v>
       </c>
       <c r="H25" s="55"/>
-      <c r="I25" s="20">
+      <c r="I25" s="20" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J25" s="20" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7706,9 +7706,9 @@
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="AK29" s="20" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+      <c r="AK29" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AL29" s="20" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -7734,9 +7734,9 @@
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AR29" s="20">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+      <c r="AR29" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
       </c>
       <c r="AS29" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9929,34 +9929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10232,27 +10204,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10271,4 +10251,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>